--- a/data/trans_dic/P17_R2-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P17_R2-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2215333375748104</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1672476779049525</v>
+        <v>0.1672476779049524</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2145843655346898</v>
@@ -697,7 +697,7 @@
         <v>0.2072974749174372</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.1442844685895879</v>
+        <v>0.1442844685895878</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1553654426502481</v>
+        <v>0.153412818445774</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2315014893011978</v>
+        <v>0.2285247538587239</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1685968190444823</v>
+        <v>0.1698000455081011</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.08656613331662331</v>
+        <v>0.0860657206495776</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2058833239798867</v>
+        <v>0.2045002283243913</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2776982954756007</v>
+        <v>0.2783374541939777</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1984011561298646</v>
+        <v>0.1981397652734498</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1440796458650197</v>
+        <v>0.13997351501911</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1949854941828602</v>
+        <v>0.1937886395529862</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2596119265659851</v>
+        <v>0.2598166610505501</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1912246149577038</v>
+        <v>0.1909965717909498</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1266489605811291</v>
+        <v>0.1254772717494541</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2246767691769803</v>
+        <v>0.2195768492460888</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2843022916401126</v>
+        <v>0.2856986730905854</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2160774119190575</v>
+        <v>0.2168915102573776</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1485170086030874</v>
+        <v>0.1503026488535742</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.262815643985559</v>
+        <v>0.2590148171911488</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3341591058226177</v>
+        <v>0.334484813330916</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2470404866333656</v>
+        <v>0.2467548809497259</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2003469214133988</v>
+        <v>0.1955339727732575</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2366405486559479</v>
+        <v>0.2376038553280861</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2992927623810578</v>
+        <v>0.3015012273814366</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2263376970630482</v>
+        <v>0.2243664449546204</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1668298581681686</v>
+        <v>0.1673531040081396</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.1776413791602851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.147100361180446</v>
+        <v>0.1471003611804459</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.3398030116110288</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1947149999327713</v>
+        <v>0.1956999251168269</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2445164627464959</v>
+        <v>0.2443842221916712</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1524837210420868</v>
+        <v>0.1537361509466775</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1227185319147712</v>
+        <v>0.123732351003834</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3095738323800368</v>
+        <v>0.3104819271126713</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2964527849198083</v>
+        <v>0.2968303678764326</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1961538689986729</v>
+        <v>0.1964288681917244</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1801544653800053</v>
+        <v>0.1811635654600099</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2594013181785176</v>
+        <v>0.2585923163366378</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2803082443412033</v>
+        <v>0.2811495719781987</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1846355311711524</v>
+        <v>0.1851286204674205</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1608861209789506</v>
+        <v>0.1592183673077918</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2457535345106936</v>
+        <v>0.2451183552639025</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3047104555909889</v>
+        <v>0.3039976044815958</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2028924708810598</v>
+        <v>0.2014574027634418</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1741280741198048</v>
+        <v>0.1762378903008943</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3673213735892331</v>
+        <v>0.3680505979754382</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3537473432203151</v>
+        <v>0.3520567817507989</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2505120515563426</v>
+        <v>0.2510544056333393</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2230281278136767</v>
+        <v>0.225932209430583</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2990604935389897</v>
+        <v>0.2989509845456839</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3241568854319924</v>
+        <v>0.3220865638544805</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2209979020738051</v>
+        <v>0.2207921022954862</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1940876254944885</v>
+        <v>0.1929925405549821</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2352169116596554</v>
+        <v>0.2356380538473342</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.187116079945222</v>
+        <v>0.1871145964642488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1267267818262472</v>
+        <v>0.1297553509854152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1289880374505794</v>
+        <v>0.129627338317043</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2963209089282581</v>
+        <v>0.2947747690075636</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2936250432894923</v>
+        <v>0.2923635256603251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1814901145904533</v>
+        <v>0.1790481022177183</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1816701781491832</v>
+        <v>0.1830437976609743</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2701783489463475</v>
+        <v>0.2709289971919572</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2484647328689877</v>
+        <v>0.2477548148805722</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1589967797733517</v>
+        <v>0.1598889908091693</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1630742515459035</v>
+        <v>0.162817086388533</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2872481485358507</v>
+        <v>0.2872027918407501</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2448916066588231</v>
+        <v>0.2431260257392549</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1791485357094564</v>
+        <v>0.1792309144078401</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1856375696831155</v>
+        <v>0.1820297671661436</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3515997746470743</v>
+        <v>0.3547499885834964</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3546446090418472</v>
+        <v>0.3557817858513476</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.240603284411142</v>
+        <v>0.2396891730340719</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2289464268816739</v>
+        <v>0.2286441650468933</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3112927071556998</v>
+        <v>0.3124549289396213</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2916190550589248</v>
+        <v>0.2914115862193347</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.1980900073530938</v>
+        <v>0.1996605692637511</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1985700115449383</v>
+        <v>0.1977320105763701</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.220046371768007</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.1600105557993913</v>
+        <v>0.1600105557993914</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.3790349744658508</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2378479409867801</v>
+        <v>0.2315631167936978</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2283337809128823</v>
+        <v>0.2267405116937217</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1836915303986912</v>
+        <v>0.1832351144599857</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1348313111381819</v>
+        <v>0.1351911712113611</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3266163174096648</v>
+        <v>0.329633394394682</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3712551922700494</v>
+        <v>0.373201626295954</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2652271553941329</v>
+        <v>0.2602727851917954</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1954385672292352</v>
+        <v>0.1955888608205961</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2897500485298942</v>
+        <v>0.2909012548945425</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3065667434936379</v>
+        <v>0.3087603384516444</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2341970679775324</v>
+        <v>0.2341614650878632</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1727716732538334</v>
+        <v>0.1715350862702622</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3227574596700481</v>
+        <v>0.3180832618897276</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3160977236563635</v>
+        <v>0.3085224318742449</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2560591866880385</v>
+        <v>0.260142279092053</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1918317226176013</v>
+        <v>0.1899723487864693</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4292039541489744</v>
+        <v>0.4370948602088898</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.4647944217248092</v>
+        <v>0.4684836390233935</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3500633448091238</v>
+        <v>0.347925288666835</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2463142261739972</v>
+        <v>0.2462525964083024</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.357825136451945</v>
+        <v>0.3559578714135374</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3718340027639673</v>
+        <v>0.375323999902466</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.292095656428789</v>
+        <v>0.2917196485185425</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2087343724603147</v>
+        <v>0.207208419372974</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.1824294506609533</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1484240739911604</v>
+        <v>0.1484240739911605</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3091178031772975</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2226465271041163</v>
+        <v>0.220137503425746</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.23838489995656</v>
+        <v>0.2371891178121024</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1700223356605469</v>
+        <v>0.1699651665084343</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.134880548138616</v>
+        <v>0.1338492131863216</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2928040728032123</v>
+        <v>0.2934743769150898</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.316464905613177</v>
+        <v>0.3139016437558652</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2163174441413067</v>
+        <v>0.2158476048609347</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1894570427535001</v>
+        <v>0.1885795888089772</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2629059293729152</v>
+        <v>0.2622779818226743</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2801668125601672</v>
+        <v>0.2805023692659198</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1972178856782228</v>
+        <v>0.197905866075049</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1669453116134526</v>
+        <v>0.1671112565667829</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2511128103773406</v>
+        <v>0.2499528213715433</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2688709009670702</v>
+        <v>0.2669441384988458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1966431754270936</v>
+        <v>0.1974610428025123</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1623601465664162</v>
+        <v>0.1618749922947869</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.326093940650299</v>
+        <v>0.3264201762413455</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3495177253377969</v>
+        <v>0.347370198931228</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2447965640804446</v>
+        <v>0.2453461986925473</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2133990699096183</v>
+        <v>0.2135357222623812</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2845889089085867</v>
+        <v>0.2844596855563492</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3032231692893454</v>
+        <v>0.3025218045758024</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2170214937470842</v>
+        <v>0.2185117380317729</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1855406175299114</v>
+        <v>0.185342000881021</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>90338</v>
+        <v>89202</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>241432</v>
+        <v>238327</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>189986</v>
+        <v>191342</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43047</v>
+        <v>42798</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>189893</v>
+        <v>188617</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>310708</v>
+        <v>311423</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>249384</v>
+        <v>249056</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>89845</v>
+        <v>87285</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>293216</v>
+        <v>291417</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>561220</v>
+        <v>561662</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>455848</v>
+        <v>455304</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>141955</v>
+        <v>140642</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>130639</v>
+        <v>127674</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>296497</v>
+        <v>297953</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>243490</v>
+        <v>244407</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>73853</v>
+        <v>74741</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>242404</v>
+        <v>238898</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>373881</v>
+        <v>374245</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>310522</v>
+        <v>310163</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>124932</v>
+        <v>121931</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>355857</v>
+        <v>357305</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>647000</v>
+        <v>651774</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>539552</v>
+        <v>534853</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>186992</v>
+        <v>187578</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>208922</v>
+        <v>209979</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>238651</v>
+        <v>238522</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>138251</v>
+        <v>139387</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>117576</v>
+        <v>118547</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>327084</v>
+        <v>328043</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>323768</v>
+        <v>324180</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>196219</v>
+        <v>196494</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>201025</v>
+        <v>202151</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>552401</v>
+        <v>550679</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>579721</v>
+        <v>581461</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>352099</v>
+        <v>353039</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>333669</v>
+        <v>330210</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>263684</v>
+        <v>263003</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>297401</v>
+        <v>296706</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>183955</v>
+        <v>182654</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>166831</v>
+        <v>168853</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>388098</v>
+        <v>388868</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>386342</v>
+        <v>384495</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>250595</v>
+        <v>251138</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>248866</v>
+        <v>252106</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>636856</v>
+        <v>636623</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>670406</v>
+        <v>666125</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>421442</v>
+        <v>421049</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>402527</v>
+        <v>400256</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>263818</v>
+        <v>264290</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>165619</v>
+        <v>165618</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>103825</v>
+        <v>106307</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>134663</v>
+        <v>135330</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>294525</v>
+        <v>292988</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>257156</v>
+        <v>256051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>139762</v>
+        <v>137881</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>189756</v>
+        <v>191191</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>571571</v>
+        <v>573160</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>437524</v>
+        <v>436274</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>252704</v>
+        <v>254122</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>340581</v>
+        <v>340044</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>322176</v>
+        <v>322125</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>216757</v>
+        <v>215194</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>146774</v>
+        <v>146841</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>193805</v>
+        <v>190038</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>349469</v>
+        <v>352600</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>310596</v>
+        <v>311592</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>185283</v>
+        <v>184579</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>239137</v>
+        <v>238821</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>658550</v>
+        <v>661009</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>513515</v>
+        <v>513150</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>314837</v>
+        <v>317333</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>414714</v>
+        <v>412964</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>105940</v>
+        <v>103140</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>114857</v>
+        <v>114056</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>92882</v>
+        <v>92651</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>130825</v>
+        <v>131174</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>111123</v>
+        <v>112150</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>168081</v>
+        <v>168962</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>128984</v>
+        <v>126575</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>176479</v>
+        <v>176615</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>227637</v>
+        <v>228542</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>293004</v>
+        <v>295100</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>232313</v>
+        <v>232278</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>323649</v>
+        <v>321333</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>143759</v>
+        <v>141677</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>159004</v>
+        <v>155194</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>129474</v>
+        <v>131539</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>186132</v>
+        <v>184328</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>146026</v>
+        <v>148711</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>210429</v>
+        <v>212099</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>170241</v>
+        <v>169201</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>222420</v>
+        <v>222364</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>281120</v>
+        <v>279653</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>355383</v>
+        <v>358719</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>289746</v>
+        <v>289373</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>391018</v>
+        <v>388159</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>717238</v>
+        <v>709155</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>812188</v>
+        <v>808114</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>571013</v>
+        <v>570821</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>467988</v>
+        <v>464410</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>970077</v>
+        <v>972298</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1120141</v>
+        <v>1111068</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>760073</v>
+        <v>758422</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>698515</v>
+        <v>695280</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1717953</v>
+        <v>1713850</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1946203</v>
+        <v>1948534</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1355311</v>
+        <v>1360039</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>1194757</v>
+        <v>1195945</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>808939</v>
+        <v>805203</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>916055</v>
+        <v>909491</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>660417</v>
+        <v>663164</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>563333</v>
+        <v>561650</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1080369</v>
+        <v>1081450</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1237132</v>
+        <v>1229531</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>860140</v>
+        <v>862071</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>786787</v>
+        <v>787291</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>1859640</v>
+        <v>1858796</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2106366</v>
+        <v>2101494</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>1491404</v>
+        <v>1501645</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>1327836</v>
+        <v>1326415</v>
       </c>
     </row>
     <row r="24">
